--- a/uploads/MaterialesOtros/Materiales Panulcillo.xlsx
+++ b/uploads/MaterialesOtros/Materiales Panulcillo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/MaterialesOtros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F7C796A-A6E6-40FC-9ED4-3C49B0EBCA20}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5CE6A26-9C49-4CF8-8F67-4131A81EBB49}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,6 +829,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>44192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/MaterialesOtros/Materiales Panulcillo.xlsx
+++ b/uploads/MaterialesOtros/Materiales Panulcillo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/MaterialesOtros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5CE6A26-9C49-4CF8-8F67-4131A81EBB49}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2650A7DB-E0A4-4ADA-A351-CEC7A478149D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C40" sqref="C40:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,35 +833,77 @@
       <c r="A40" s="1">
         <v>44189</v>
       </c>
+      <c r="B40" s="3">
+        <v>299.19447640966598</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>44190</v>
       </c>
+      <c r="B41" s="3">
+        <v>264.672036823935</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44191</v>
       </c>
+      <c r="B42" s="3">
+        <v>414.26927502876799</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44192</v>
       </c>
+      <c r="B43" s="3">
+        <v>414.26927502876799</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44193</v>
       </c>
+      <c r="B44" s="3">
+        <v>4602.9919447640896</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44194</v>
       </c>
+      <c r="B45" s="3">
+        <v>529.34407364787103</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44195</v>
+      </c>
+      <c r="B46" s="3">
+        <v>184.119677790563</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
